--- a/data/trans_orig/PRIV21_15-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PRIV21_15-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de privacion socioeconómica en País Vasco</t>
+          <t>Índice de privacion socioeconómica en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PRIV21_15-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PRIV21_15-Clase-trans_orig.xlsx
@@ -731,32 +731,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18765</t>
+          <t>19244</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15238</t>
+          <t>15542</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22434</t>
+          <t>22877</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -766,32 +766,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19052</t>
+          <t>21142</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15717</t>
+          <t>17743</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22949</t>
+          <t>25954</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -801,32 +801,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>37817</t>
+          <t>40387</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>33121</t>
+          <t>35285</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>42849</t>
+          <t>45677</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>13,75%</t>
         </is>
       </c>
     </row>
@@ -842,32 +842,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24202</t>
+          <t>23542</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20453</t>
+          <t>19829</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28187</t>
+          <t>27843</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -877,32 +877,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22975</t>
+          <t>21386</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19221</t>
+          <t>18219</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26988</t>
+          <t>25661</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -912,32 +912,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>47177</t>
+          <t>44928</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>42022</t>
+          <t>40294</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>53167</t>
+          <t>50494</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>15,2%</t>
         </is>
       </c>
     </row>
@@ -953,32 +953,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26212</t>
+          <t>27138</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22384</t>
+          <t>22832</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31006</t>
+          <t>31814</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -988,32 +988,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24183</t>
+          <t>28001</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20343</t>
+          <t>24134</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>27927</t>
+          <t>32540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1023,32 +1023,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>50395</t>
+          <t>55139</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>44994</t>
+          <t>49074</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>56435</t>
+          <t>61905</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>18,64%</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34168</t>
+          <t>37636</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29550</t>
+          <t>32747</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38810</t>
+          <t>43070</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1099,32 +1099,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34568</t>
+          <t>38280</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30092</t>
+          <t>33043</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39028</t>
+          <t>43166</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1134,32 +1134,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>68736</t>
+          <t>75916</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>62676</t>
+          <t>69606</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>75012</t>
+          <t>82971</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>24,98%</t>
         </is>
       </c>
     </row>
@@ -1175,32 +1175,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42830</t>
+          <t>55686</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38245</t>
+          <t>50233</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47612</t>
+          <t>61597</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1210,32 +1210,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42425</t>
+          <t>60050</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>37672</t>
+          <t>54174</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>47426</t>
+          <t>66341</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1245,32 +1245,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>85255</t>
+          <t>115736</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>78556</t>
+          <t>107567</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>91627</t>
+          <t>125079</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>37,66%</t>
         </is>
       </c>
     </row>
@@ -1288,17 +1288,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>146177</t>
+          <t>163247</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1323,17 +1323,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>143204</t>
+          <t>168859</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>289381</t>
+          <t>332106</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1403,32 +1403,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15810</t>
+          <t>16841</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12727</t>
+          <t>13698</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19202</t>
+          <t>20289</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1438,32 +1438,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15644</t>
+          <t>16803</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12711</t>
+          <t>13762</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19076</t>
+          <t>20413</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1473,32 +1473,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>31453</t>
+          <t>33644</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>27278</t>
+          <t>28928</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>36110</t>
+          <t>38496</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>18,04%</t>
         </is>
       </c>
     </row>
@@ -1514,32 +1514,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15643</t>
+          <t>13735</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12881</t>
+          <t>11130</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19154</t>
+          <t>16947</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1549,32 +1549,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22660</t>
+          <t>22720</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19509</t>
+          <t>19352</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26320</t>
+          <t>26608</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1584,32 +1584,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>38303</t>
+          <t>36456</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>33742</t>
+          <t>32002</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>43116</t>
+          <t>41584</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -1625,32 +1625,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13631</t>
+          <t>15715</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10831</t>
+          <t>12531</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16858</t>
+          <t>19970</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1660,32 +1660,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19428</t>
+          <t>20314</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16009</t>
+          <t>16804</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>23028</t>
+          <t>24378</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1695,32 +1695,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>33058</t>
+          <t>36029</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>29023</t>
+          <t>31274</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>37981</t>
+          <t>41513</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>19,45%</t>
         </is>
       </c>
     </row>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18182</t>
+          <t>19434</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15214</t>
+          <t>16283</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21664</t>
+          <t>23123</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1771,32 +1771,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25810</t>
+          <t>29588</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22039</t>
+          <t>25466</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29740</t>
+          <t>34062</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1806,32 +1806,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>43992</t>
+          <t>49023</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>38621</t>
+          <t>43473</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>48658</t>
+          <t>54742</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>25,65%</t>
         </is>
       </c>
     </row>
@@ -1847,32 +1847,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17908</t>
+          <t>24700</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14889</t>
+          <t>20984</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21306</t>
+          <t>28715</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1882,32 +1882,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25962</t>
+          <t>33530</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>22402</t>
+          <t>28925</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29774</t>
+          <t>38072</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1917,32 +1917,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>43870</t>
+          <t>58230</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>39265</t>
+          <t>52392</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>49521</t>
+          <t>64157</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>30,07%</t>
         </is>
       </c>
     </row>
@@ -1960,17 +1960,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1995,17 +1995,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>109504</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>190676</t>
+          <t>213381</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2075,32 +2075,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>34740</t>
+          <t>33579</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30255</t>
+          <t>29330</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39436</t>
+          <t>38343</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2110,32 +2110,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13050</t>
+          <t>11643</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10238</t>
+          <t>9114</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16364</t>
+          <t>14614</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2145,32 +2145,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>47790</t>
+          <t>45223</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>42544</t>
+          <t>39547</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>53952</t>
+          <t>50373</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>23,29%</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2186,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41730</t>
+          <t>35627</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36671</t>
+          <t>31415</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46655</t>
+          <t>39738</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2221,32 +2221,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14603</t>
+          <t>12967</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11706</t>
+          <t>10437</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17651</t>
+          <t>15755</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>56332</t>
+          <t>48595</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>50355</t>
+          <t>43645</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>61940</t>
+          <t>54041</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>24,99%</t>
         </is>
       </c>
     </row>
@@ -2297,32 +2297,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>37867</t>
+          <t>31750</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>33389</t>
+          <t>27547</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43298</t>
+          <t>36176</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2332,32 +2332,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13465</t>
+          <t>11343</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>10303</t>
+          <t>9107</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>16625</t>
+          <t>14037</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2367,32 +2367,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>51332</t>
+          <t>43093</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>45572</t>
+          <t>37983</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>57217</t>
+          <t>48261</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>22,32%</t>
         </is>
       </c>
     </row>
@@ -2408,32 +2408,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28545</t>
+          <t>28116</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24120</t>
+          <t>24240</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32876</t>
+          <t>32759</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13596</t>
+          <t>14389</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11003</t>
+          <t>11589</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>16647</t>
+          <t>17633</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>42141</t>
+          <t>42505</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>37599</t>
+          <t>37736</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>47873</t>
+          <t>48285</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>22,33%</t>
         </is>
       </c>
     </row>
@@ -2519,32 +2519,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>21140</t>
+          <t>25021</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17736</t>
+          <t>21018</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25133</t>
+          <t>29226</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2554,32 +2554,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8775</t>
+          <t>11812</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6721</t>
+          <t>9014</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11152</t>
+          <t>15111</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>29915</t>
+          <t>36833</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>25623</t>
+          <t>32148</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>34277</t>
+          <t>42333</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>19,58%</t>
         </is>
       </c>
     </row>
@@ -2632,17 +2632,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>164021</t>
+          <t>154094</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2667,17 +2667,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2702,17 +2702,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>227510</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2747,32 +2747,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>45781</t>
+          <t>44275</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>40694</t>
+          <t>39598</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>51308</t>
+          <t>49470</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2782,32 +2782,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>40515</t>
+          <t>41056</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>35893</t>
+          <t>36187</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>45660</t>
+          <t>46459</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>86296</t>
+          <t>85331</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>79173</t>
+          <t>78247</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>93823</t>
+          <t>92128</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>25,91%</t>
         </is>
       </c>
     </row>
@@ -2858,32 +2858,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>43956</t>
+          <t>39465</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>39019</t>
+          <t>35172</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>49010</t>
+          <t>44312</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2893,32 +2893,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>41643</t>
+          <t>41623</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>37013</t>
+          <t>36991</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>47260</t>
+          <t>46796</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2928,32 +2928,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>85598</t>
+          <t>81088</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>78988</t>
+          <t>74245</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>93702</t>
+          <t>88131</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>24,79%</t>
         </is>
       </c>
     </row>
@@ -2969,32 +2969,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>32473</t>
+          <t>31868</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>27731</t>
+          <t>27937</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>37220</t>
+          <t>36346</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3004,32 +3004,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>37410</t>
+          <t>35247</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>32622</t>
+          <t>30749</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>42388</t>
+          <t>40478</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3039,32 +3039,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>69884</t>
+          <t>67114</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>63571</t>
+          <t>60882</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>77235</t>
+          <t>74277</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>20,89%</t>
         </is>
       </c>
     </row>
@@ -3080,32 +3080,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>29596</t>
+          <t>32212</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>25350</t>
+          <t>27327</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34318</t>
+          <t>36687</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3115,32 +3115,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>34900</t>
+          <t>38378</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>30331</t>
+          <t>33485</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>39772</t>
+          <t>43662</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3150,32 +3150,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>64496</t>
+          <t>70590</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>58461</t>
+          <t>63636</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>71462</t>
+          <t>78550</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>22,09%</t>
         </is>
       </c>
     </row>
@@ -3191,32 +3191,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>19160</t>
+          <t>23716</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>19706</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>22541</t>
+          <t>27671</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3226,32 +3226,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24368</t>
+          <t>27723</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>20712</t>
+          <t>23685</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>28261</t>
+          <t>32643</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3261,32 +3261,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>43528</t>
+          <t>51439</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>38633</t>
+          <t>45895</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>49206</t>
+          <t>58520</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>16,46%</t>
         </is>
       </c>
     </row>
@@ -3304,17 +3304,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3339,17 +3339,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3374,17 +3374,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3419,32 +3419,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>20143</t>
+          <t>20529</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16748</t>
+          <t>17309</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>23757</t>
+          <t>23881</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3454,32 +3454,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>41049</t>
+          <t>38440</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>36613</t>
+          <t>33924</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>45978</t>
+          <t>43544</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3489,32 +3489,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>61192</t>
+          <t>58969</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>55488</t>
+          <t>53986</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>67687</t>
+          <t>64864</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>32,41%</t>
         </is>
       </c>
     </row>
@@ -3530,32 +3530,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>20024</t>
+          <t>17349</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>16721</t>
+          <t>14411</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>23675</t>
+          <t>20356</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3565,32 +3565,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>31528</t>
+          <t>27706</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>27384</t>
+          <t>23855</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>36109</t>
+          <t>32261</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3600,32 +3600,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>51552</t>
+          <t>45054</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>45740</t>
+          <t>40067</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>57350</t>
+          <t>50308</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>25,13%</t>
         </is>
       </c>
     </row>
@@ -3641,32 +3641,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>14462</t>
+          <t>14799</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>11635</t>
+          <t>11876</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>17974</t>
+          <t>17949</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3676,32 +3676,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>29837</t>
+          <t>26209</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>25838</t>
+          <t>22749</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>34669</t>
+          <t>30719</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3711,32 +3711,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>44299</t>
+          <t>41008</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>39300</t>
+          <t>36333</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>49771</t>
+          <t>46121</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>23,04%</t>
         </is>
       </c>
     </row>
@@ -3752,32 +3752,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>13656</t>
+          <t>13004</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10941</t>
+          <t>10435</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>16878</t>
+          <t>15988</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3787,32 +3787,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>17144</t>
+          <t>17814</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>14105</t>
+          <t>14720</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>20849</t>
+          <t>21977</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3822,32 +3822,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>30801</t>
+          <t>30818</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>26865</t>
+          <t>26596</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>35822</t>
+          <t>35216</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>17,59%</t>
         </is>
       </c>
     </row>
@@ -3863,32 +3863,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>8670</t>
+          <t>9058</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6605</t>
+          <t>6821</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>11133</t>
+          <t>11795</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3898,32 +3898,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>13373</t>
+          <t>15247</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>10525</t>
+          <t>12375</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>16165</t>
+          <t>18298</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3933,32 +3933,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>22043</t>
+          <t>24305</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>18513</t>
+          <t>20715</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>26292</t>
+          <t>28697</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>14,34%</t>
         </is>
       </c>
     </row>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4011,17 +4011,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4046,17 +4046,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>209886</t>
+          <t>200154</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4091,32 +4091,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>9570</t>
+          <t>10685</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>7265</t>
+          <t>8084</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>12329</t>
+          <t>13531</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4126,32 +4126,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>27921</t>
+          <t>26389</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>23957</t>
+          <t>22275</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>32541</t>
+          <t>30413</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4161,32 +4161,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>37491</t>
+          <t>37074</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>32418</t>
+          <t>32338</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>42273</t>
+          <t>42531</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>23,62%</t>
         </is>
       </c>
     </row>
@@ -4202,32 +4202,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>7828</t>
+          <t>9436</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>7077</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>10344</t>
+          <t>12415</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4237,32 +4237,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>29089</t>
+          <t>25945</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>25431</t>
+          <t>21860</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>33903</t>
+          <t>29824</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4272,32 +4272,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>36917</t>
+          <t>35381</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>32577</t>
+          <t>30786</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>42520</t>
+          <t>40330</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>22,4%</t>
         </is>
       </c>
     </row>
@@ -4313,32 +4313,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>10267</t>
+          <t>12467</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>8085</t>
+          <t>9797</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>12763</t>
+          <t>15476</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4348,17 +4348,17 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>21676</t>
+          <t>22559</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>18241</t>
+          <t>18607</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>25895</t>
+          <t>26665</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4368,12 +4368,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4383,32 +4383,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>31943</t>
+          <t>35025</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>27563</t>
+          <t>30178</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>36826</t>
+          <t>40089</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>22,26%</t>
         </is>
       </c>
     </row>
@@ -4424,32 +4424,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>8372</t>
+          <t>9118</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>6397</t>
+          <t>6711</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>10775</t>
+          <t>11853</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4459,32 +4459,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>19873</t>
+          <t>22528</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>16692</t>
+          <t>18818</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>23408</t>
+          <t>26598</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4494,32 +4494,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>28244</t>
+          <t>31646</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>24132</t>
+          <t>27263</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>32770</t>
+          <t>36497</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>20,27%</t>
         </is>
       </c>
     </row>
@@ -4535,32 +4535,32 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>9826</t>
+          <t>14684</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>7677</t>
+          <t>11858</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>12152</t>
+          <t>18842</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4570,32 +4570,32 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>20303</t>
+          <t>26252</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>16735</t>
+          <t>21982</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>24119</t>
+          <t>30330</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4605,32 +4605,32 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>30129</t>
+          <t>40935</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>26102</t>
+          <t>35728</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>34246</t>
+          <t>46844</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>26,02%</t>
         </is>
       </c>
     </row>
@@ -4648,17 +4648,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>45862</t>
+          <t>56389</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4683,17 +4683,17 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>118862</t>
+          <t>123672</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4718,17 +4718,17 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>164724</t>
+          <t>180061</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4763,32 +4763,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>144808</t>
+          <t>145153</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>136026</t>
+          <t>135977</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>154972</t>
+          <t>154995</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4798,32 +4798,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>157231</t>
+          <t>155474</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>147522</t>
+          <t>145886</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>166716</t>
+          <t>165532</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4833,32 +4833,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>302039</t>
+          <t>300627</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>288843</t>
+          <t>287449</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>316031</t>
+          <t>313728</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>20,95%</t>
         </is>
       </c>
     </row>
@@ -4874,32 +4874,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>153382</t>
+          <t>139154</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>144019</t>
+          <t>130470</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>163265</t>
+          <t>147921</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4909,32 +4909,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>162497</t>
+          <t>152348</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>152728</t>
+          <t>143667</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>172666</t>
+          <t>161696</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -4944,32 +4944,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>315879</t>
+          <t>291502</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>302343</t>
+          <t>279072</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>329466</t>
+          <t>305794</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>20,42%</t>
         </is>
       </c>
     </row>
@@ -4985,32 +4985,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>134911</t>
+          <t>133736</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>125937</t>
+          <t>124460</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>144285</t>
+          <t>142560</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5020,32 +5020,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>146000</t>
+          <t>143673</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>137133</t>
+          <t>134052</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>155796</t>
+          <t>153817</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5055,32 +5055,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>280911</t>
+          <t>277409</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>267315</t>
+          <t>264166</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>293524</t>
+          <t>291833</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -5096,32 +5096,32 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>132518</t>
+          <t>139521</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>122681</t>
+          <t>130893</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>142077</t>
+          <t>149208</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5131,32 +5131,32 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>145891</t>
+          <t>160977</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>137068</t>
+          <t>149938</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>156137</t>
+          <t>171061</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5166,32 +5166,32 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>278410</t>
+          <t>300499</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>265143</t>
+          <t>286352</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>292821</t>
+          <t>313913</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,96%</t>
         </is>
       </c>
     </row>
@@ -5207,32 +5207,32 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>119533</t>
+          <t>152865</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>111329</t>
+          <t>143256</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>127974</t>
+          <t>163680</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5242,32 +5242,32 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>135206</t>
+          <t>174613</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>126604</t>
+          <t>163779</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>144458</t>
+          <t>185361</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5277,32 +5277,32 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>254739</t>
+          <t>327479</t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>243438</t>
+          <t>313629</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>267312</t>
+          <t>343663</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>22,95%</t>
         </is>
       </c>
     </row>
@@ -5320,17 +5320,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>685152</t>
+          <t>710429</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5355,17 +5355,17 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>746826</t>
+          <t>787085</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5390,17 +5390,17 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>1431978</t>
+          <t>1497515</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
